--- a/assets/template/2page_template.xlsx
+++ b/assets/template/2page_template.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="18720" yWindow="0" windowWidth="22104" windowHeight="9984"/>
+    <workbookView xWindow="21528" yWindow="0" windowWidth="22104" windowHeight="9984"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1140,7 +1140,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -1286,11 +1286,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1345,6 +1354,129 @@
     <xf numFmtId="3" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1393,129 +1525,7 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="3" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1872,7 +1882,7 @@
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -1887,14 +1897,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="44.4" customHeight="1">
-      <c r="A1" s="44"/>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
+      <c r="A1" s="56"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
       <c r="I1" s="3" t="s">
         <v>44</v>
       </c>
@@ -1908,148 +1918,148 @@
       <c r="Q1" s="4"/>
     </row>
     <row r="2" spans="1:17" ht="17.399999999999999" customHeight="1">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="69" t="s">
+      <c r="B2" s="57"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="J2" s="69"/>
-      <c r="K2" s="69"/>
-      <c r="L2" s="69"/>
-      <c r="M2" s="69"/>
-      <c r="N2" s="69"/>
-      <c r="O2" s="69"/>
-      <c r="P2" s="69"/>
-      <c r="Q2" s="69"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="33"/>
+      <c r="O2" s="33"/>
+      <c r="P2" s="33"/>
+      <c r="Q2" s="33"/>
     </row>
     <row r="3" spans="1:17" ht="18" customHeight="1">
-      <c r="A3" s="46"/>
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="69"/>
-      <c r="J3" s="69"/>
-      <c r="K3" s="69"/>
-      <c r="L3" s="69"/>
-      <c r="M3" s="69"/>
-      <c r="N3" s="69"/>
-      <c r="O3" s="69"/>
-      <c r="P3" s="69"/>
-      <c r="Q3" s="69"/>
+      <c r="A3" s="58"/>
+      <c r="B3" s="58"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="33"/>
+      <c r="L3" s="33"/>
+      <c r="M3" s="33"/>
+      <c r="N3" s="33"/>
+      <c r="O3" s="33"/>
+      <c r="P3" s="33"/>
+      <c r="Q3" s="33"/>
     </row>
     <row r="4" spans="1:17" ht="14.4">
-      <c r="A4" s="53" t="s">
+      <c r="A4" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="53"/>
-      <c r="C4" s="53"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="70" t="s">
+      <c r="B4" s="65"/>
+      <c r="C4" s="65"/>
+      <c r="D4" s="65"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="65"/>
+      <c r="G4" s="65"/>
+      <c r="H4" s="65"/>
+      <c r="I4" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="J4" s="71"/>
-      <c r="K4" s="71"/>
-      <c r="L4" s="71"/>
-      <c r="M4" s="71"/>
-      <c r="N4" s="71"/>
-      <c r="O4" s="71"/>
-      <c r="P4" s="71"/>
-      <c r="Q4" s="71"/>
+      <c r="J4" s="41"/>
+      <c r="K4" s="41"/>
+      <c r="L4" s="41"/>
+      <c r="M4" s="41"/>
+      <c r="N4" s="41"/>
+      <c r="O4" s="41"/>
+      <c r="P4" s="41"/>
+      <c r="Q4" s="41"/>
     </row>
     <row r="5" spans="1:17" ht="13.8" customHeight="1">
-      <c r="A5" s="59" t="s">
+      <c r="A5" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="60"/>
-      <c r="C5" s="60"/>
+      <c r="B5" s="51"/>
+      <c r="C5" s="51"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
-      <c r="F5" s="54" t="s">
+      <c r="F5" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="G5" s="61" t="s">
+      <c r="G5" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="H5" s="62"/>
-      <c r="I5" s="72" t="s">
+      <c r="H5" s="53"/>
+      <c r="I5" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="J5" s="73"/>
-      <c r="K5" s="73"/>
-      <c r="L5" s="73"/>
-      <c r="M5" s="73"/>
-      <c r="N5" s="73"/>
-      <c r="O5" s="73"/>
-      <c r="P5" s="73"/>
-      <c r="Q5" s="73"/>
+      <c r="J5" s="31"/>
+      <c r="K5" s="31"/>
+      <c r="L5" s="31"/>
+      <c r="M5" s="31"/>
+      <c r="N5" s="31"/>
+      <c r="O5" s="31"/>
+      <c r="P5" s="31"/>
+      <c r="Q5" s="31"/>
     </row>
     <row r="6" spans="1:17" ht="12.6" customHeight="1">
-      <c r="A6" s="63" t="s">
+      <c r="A6" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="64"/>
+      <c r="B6" s="55"/>
       <c r="C6" s="6"/>
       <c r="D6" s="25"/>
       <c r="E6" s="6"/>
-      <c r="F6" s="55"/>
-      <c r="G6" s="47" t="s">
+      <c r="F6" s="67"/>
+      <c r="G6" s="59" t="s">
         <v>70</v>
       </c>
-      <c r="H6" s="48"/>
-      <c r="I6" s="72"/>
-      <c r="J6" s="73"/>
-      <c r="K6" s="73"/>
-      <c r="L6" s="73"/>
-      <c r="M6" s="73"/>
-      <c r="N6" s="73"/>
-      <c r="O6" s="73"/>
-      <c r="P6" s="73"/>
-      <c r="Q6" s="73"/>
+      <c r="H6" s="60"/>
+      <c r="I6" s="32"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
+      <c r="P6" s="31"/>
+      <c r="Q6" s="31"/>
     </row>
     <row r="7" spans="1:17" ht="14.4" customHeight="1">
-      <c r="A7" s="63" t="s">
+      <c r="A7" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="64"/>
+      <c r="B7" s="55"/>
       <c r="C7" s="6"/>
       <c r="D7" s="25"/>
       <c r="E7" s="6"/>
-      <c r="F7" s="56"/>
-      <c r="G7" s="49"/>
-      <c r="H7" s="50"/>
-      <c r="I7" s="65" t="s">
+      <c r="F7" s="68"/>
+      <c r="G7" s="61"/>
+      <c r="H7" s="62"/>
+      <c r="I7" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="J7" s="74"/>
-      <c r="K7" s="74"/>
-      <c r="L7" s="74"/>
-      <c r="M7" s="74"/>
-      <c r="N7" s="74"/>
-      <c r="O7" s="74"/>
-      <c r="P7" s="74"/>
-      <c r="Q7" s="74"/>
+      <c r="J7" s="35"/>
+      <c r="K7" s="35"/>
+      <c r="L7" s="35"/>
+      <c r="M7" s="35"/>
+      <c r="N7" s="35"/>
+      <c r="O7" s="35"/>
+      <c r="P7" s="35"/>
+      <c r="Q7" s="35"/>
     </row>
     <row r="8" spans="1:17" ht="15" customHeight="1">
-      <c r="A8" s="63" t="s">
+      <c r="A8" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="64"/>
+      <c r="B8" s="55"/>
       <c r="C8" s="6"/>
       <c r="D8" s="25"/>
       <c r="E8" s="6"/>
@@ -2062,23 +2072,23 @@
       <c r="H8" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="I8" s="72" t="s">
+      <c r="I8" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="J8" s="73"/>
-      <c r="K8" s="73"/>
-      <c r="L8" s="73"/>
-      <c r="M8" s="73"/>
-      <c r="N8" s="73"/>
-      <c r="O8" s="73"/>
-      <c r="P8" s="73"/>
-      <c r="Q8" s="73"/>
+      <c r="J8" s="31"/>
+      <c r="K8" s="31"/>
+      <c r="L8" s="31"/>
+      <c r="M8" s="31"/>
+      <c r="N8" s="31"/>
+      <c r="O8" s="31"/>
+      <c r="P8" s="31"/>
+      <c r="Q8" s="31"/>
     </row>
     <row r="9" spans="1:17" ht="14.4">
-      <c r="A9" s="63" t="s">
+      <c r="A9" s="54" t="s">
         <v>69</v>
       </c>
-      <c r="B9" s="64"/>
+      <c r="B9" s="55"/>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
@@ -2087,17 +2097,17 @@
       </c>
       <c r="G9" s="26"/>
       <c r="H9" s="21"/>
-      <c r="I9" s="65" t="s">
+      <c r="I9" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="J9" s="66"/>
-      <c r="K9" s="66"/>
-      <c r="L9" s="66"/>
-      <c r="M9" s="66"/>
-      <c r="N9" s="66"/>
-      <c r="O9" s="66"/>
-      <c r="P9" s="66"/>
-      <c r="Q9" s="66"/>
+      <c r="J9" s="42"/>
+      <c r="K9" s="42"/>
+      <c r="L9" s="42"/>
+      <c r="M9" s="42"/>
+      <c r="N9" s="42"/>
+      <c r="O9" s="42"/>
+      <c r="P9" s="42"/>
+      <c r="Q9" s="42"/>
     </row>
     <row r="10" spans="1:17" ht="14.4" customHeight="1">
       <c r="A10" s="8" t="s">
@@ -2112,15 +2122,15 @@
       </c>
       <c r="G10" s="26"/>
       <c r="H10" s="21"/>
-      <c r="I10" s="65"/>
-      <c r="J10" s="66"/>
-      <c r="K10" s="66"/>
-      <c r="L10" s="66"/>
-      <c r="M10" s="66"/>
-      <c r="N10" s="66"/>
-      <c r="O10" s="66"/>
-      <c r="P10" s="66"/>
-      <c r="Q10" s="66"/>
+      <c r="I10" s="34"/>
+      <c r="J10" s="42"/>
+      <c r="K10" s="42"/>
+      <c r="L10" s="42"/>
+      <c r="M10" s="42"/>
+      <c r="N10" s="42"/>
+      <c r="O10" s="42"/>
+      <c r="P10" s="42"/>
+      <c r="Q10" s="42"/>
     </row>
     <row r="11" spans="1:17" ht="15" customHeight="1">
       <c r="A11" s="9" t="s">
@@ -2193,17 +2203,17 @@
       </c>
       <c r="G13" s="26"/>
       <c r="H13" s="21"/>
-      <c r="I13" s="72" t="s">
+      <c r="I13" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="J13" s="69"/>
-      <c r="K13" s="69"/>
-      <c r="L13" s="69"/>
-      <c r="M13" s="69"/>
-      <c r="N13" s="69"/>
-      <c r="O13" s="69"/>
-      <c r="P13" s="69"/>
-      <c r="Q13" s="69"/>
+      <c r="J13" s="33"/>
+      <c r="K13" s="33"/>
+      <c r="L13" s="33"/>
+      <c r="M13" s="33"/>
+      <c r="N13" s="33"/>
+      <c r="O13" s="33"/>
+      <c r="P13" s="33"/>
+      <c r="Q13" s="33"/>
     </row>
     <row r="14" spans="1:17" ht="15.6">
       <c r="A14" s="14" t="s">
@@ -2218,15 +2228,15 @@
       </c>
       <c r="G14" s="26"/>
       <c r="H14" s="21"/>
-      <c r="I14" s="72"/>
-      <c r="J14" s="69"/>
-      <c r="K14" s="69"/>
-      <c r="L14" s="69"/>
-      <c r="M14" s="69"/>
-      <c r="N14" s="69"/>
-      <c r="O14" s="69"/>
-      <c r="P14" s="69"/>
-      <c r="Q14" s="69"/>
+      <c r="I14" s="32"/>
+      <c r="J14" s="33"/>
+      <c r="K14" s="33"/>
+      <c r="L14" s="33"/>
+      <c r="M14" s="33"/>
+      <c r="N14" s="33"/>
+      <c r="O14" s="33"/>
+      <c r="P14" s="33"/>
+      <c r="Q14" s="33"/>
     </row>
     <row r="15" spans="1:17" ht="15" customHeight="1">
       <c r="A15" s="14" t="s">
@@ -2241,17 +2251,17 @@
       </c>
       <c r="G15" s="26"/>
       <c r="H15" s="21"/>
-      <c r="I15" s="70" t="s">
+      <c r="I15" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="J15" s="71"/>
-      <c r="K15" s="71"/>
-      <c r="L15" s="71"/>
-      <c r="M15" s="71"/>
-      <c r="N15" s="71"/>
-      <c r="O15" s="71"/>
-      <c r="P15" s="71"/>
-      <c r="Q15" s="71"/>
+      <c r="J15" s="41"/>
+      <c r="K15" s="41"/>
+      <c r="L15" s="41"/>
+      <c r="M15" s="41"/>
+      <c r="N15" s="41"/>
+      <c r="O15" s="41"/>
+      <c r="P15" s="41"/>
+      <c r="Q15" s="41"/>
     </row>
     <row r="16" spans="1:17" ht="15.6" customHeight="1">
       <c r="A16" s="24" t="s">
@@ -2266,25 +2276,25 @@
       </c>
       <c r="G16" s="26"/>
       <c r="H16" s="21"/>
-      <c r="I16" s="67" t="s">
+      <c r="I16" s="47" t="s">
         <v>61</v>
       </c>
-      <c r="J16" s="68"/>
-      <c r="K16" s="68"/>
-      <c r="L16" s="68"/>
-      <c r="M16" s="68"/>
-      <c r="N16" s="68"/>
-      <c r="O16" s="68"/>
-      <c r="P16" s="68"/>
-      <c r="Q16" s="68"/>
+      <c r="J16" s="39"/>
+      <c r="K16" s="39"/>
+      <c r="L16" s="39"/>
+      <c r="M16" s="39"/>
+      <c r="N16" s="39"/>
+      <c r="O16" s="39"/>
+      <c r="P16" s="39"/>
+      <c r="Q16" s="39"/>
     </row>
     <row r="17" spans="1:17" ht="22.2" customHeight="1">
-      <c r="A17" s="51" t="s">
+      <c r="A17" s="63" t="s">
         <v>71</v>
       </c>
-      <c r="B17" s="52"/>
-      <c r="C17" s="52"/>
-      <c r="D17" s="52"/>
+      <c r="B17" s="64"/>
+      <c r="C17" s="64"/>
+      <c r="D17" s="64"/>
       <c r="E17" s="15"/>
       <c r="F17" s="7" t="s">
         <v>34</v>
@@ -2295,117 +2305,117 @@
       <c r="H17" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="I17" s="65" t="s">
+      <c r="I17" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="J17" s="66"/>
-      <c r="K17" s="66"/>
-      <c r="L17" s="66"/>
-      <c r="M17" s="66"/>
-      <c r="N17" s="66"/>
-      <c r="O17" s="66"/>
-      <c r="P17" s="66"/>
-      <c r="Q17" s="66"/>
+      <c r="J17" s="42"/>
+      <c r="K17" s="42"/>
+      <c r="L17" s="42"/>
+      <c r="M17" s="42"/>
+      <c r="N17" s="42"/>
+      <c r="O17" s="42"/>
+      <c r="P17" s="42"/>
+      <c r="Q17" s="42"/>
     </row>
     <row r="18" spans="1:17" ht="14.4">
-      <c r="A18" s="57" t="s">
+      <c r="A18" s="48" t="s">
         <v>43</v>
       </c>
-      <c r="B18" s="58"/>
-      <c r="C18" s="58"/>
-      <c r="D18" s="16"/>
+      <c r="B18" s="49"/>
+      <c r="C18" s="49"/>
+      <c r="D18" s="85"/>
       <c r="E18" s="16"/>
       <c r="F18" s="20" t="s">
         <v>35</v>
       </c>
       <c r="G18" s="26"/>
       <c r="H18" s="21"/>
-      <c r="I18" s="65"/>
-      <c r="J18" s="66"/>
-      <c r="K18" s="66"/>
-      <c r="L18" s="66"/>
-      <c r="M18" s="66"/>
-      <c r="N18" s="66"/>
-      <c r="O18" s="66"/>
-      <c r="P18" s="66"/>
-      <c r="Q18" s="66"/>
+      <c r="I18" s="34"/>
+      <c r="J18" s="42"/>
+      <c r="K18" s="42"/>
+      <c r="L18" s="42"/>
+      <c r="M18" s="42"/>
+      <c r="N18" s="42"/>
+      <c r="O18" s="42"/>
+      <c r="P18" s="42"/>
+      <c r="Q18" s="42"/>
     </row>
     <row r="19" spans="1:17" ht="14.4">
       <c r="A19" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="18"/>
+      <c r="B19" s="25"/>
       <c r="C19" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="D19" s="6"/>
+      <c r="D19" s="25"/>
       <c r="E19" s="6"/>
       <c r="F19" s="20" t="s">
         <v>36</v>
       </c>
       <c r="G19" s="26"/>
       <c r="H19" s="21"/>
-      <c r="I19" s="78" t="s">
+      <c r="I19" s="43" t="s">
         <v>63</v>
       </c>
-      <c r="J19" s="79"/>
-      <c r="K19" s="79"/>
-      <c r="L19" s="79"/>
-      <c r="M19" s="79"/>
-      <c r="N19" s="79"/>
-      <c r="O19" s="79"/>
-      <c r="P19" s="79"/>
-      <c r="Q19" s="79"/>
+      <c r="J19" s="44"/>
+      <c r="K19" s="44"/>
+      <c r="L19" s="44"/>
+      <c r="M19" s="44"/>
+      <c r="N19" s="44"/>
+      <c r="O19" s="44"/>
+      <c r="P19" s="44"/>
+      <c r="Q19" s="44"/>
     </row>
     <row r="20" spans="1:17" ht="14.4">
-      <c r="A20" s="57" t="s">
+      <c r="A20" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="B20" s="58"/>
-      <c r="C20" s="58"/>
-      <c r="D20" s="16"/>
+      <c r="B20" s="49"/>
+      <c r="C20" s="49"/>
+      <c r="D20" s="85"/>
       <c r="E20" s="16"/>
       <c r="F20" s="20" t="s">
         <v>37</v>
       </c>
       <c r="G20" s="26"/>
       <c r="H20" s="21"/>
-      <c r="I20" s="78"/>
-      <c r="J20" s="79"/>
-      <c r="K20" s="79"/>
-      <c r="L20" s="79"/>
-      <c r="M20" s="79"/>
-      <c r="N20" s="79"/>
-      <c r="O20" s="79"/>
-      <c r="P20" s="79"/>
-      <c r="Q20" s="79"/>
+      <c r="I20" s="43"/>
+      <c r="J20" s="44"/>
+      <c r="K20" s="44"/>
+      <c r="L20" s="44"/>
+      <c r="M20" s="44"/>
+      <c r="N20" s="44"/>
+      <c r="O20" s="44"/>
+      <c r="P20" s="44"/>
+      <c r="Q20" s="44"/>
     </row>
     <row r="21" spans="1:17" ht="14.4">
       <c r="A21" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B21" s="18"/>
+      <c r="B21" s="25"/>
       <c r="C21" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="D21" s="6"/>
+      <c r="D21" s="25"/>
       <c r="E21" s="6"/>
       <c r="F21" s="20" t="s">
         <v>38</v>
       </c>
       <c r="G21" s="26"/>
       <c r="H21" s="21"/>
-      <c r="I21" s="72" t="s">
+      <c r="I21" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="J21" s="69"/>
-      <c r="K21" s="69"/>
-      <c r="L21" s="69"/>
-      <c r="M21" s="69"/>
-      <c r="N21" s="69"/>
-      <c r="O21" s="69"/>
-      <c r="P21" s="69"/>
-      <c r="Q21" s="69"/>
+      <c r="J21" s="33"/>
+      <c r="K21" s="33"/>
+      <c r="L21" s="33"/>
+      <c r="M21" s="33"/>
+      <c r="N21" s="33"/>
+      <c r="O21" s="33"/>
+      <c r="P21" s="33"/>
+      <c r="Q21" s="33"/>
     </row>
     <row r="22" spans="1:17" ht="18.600000000000001" customHeight="1">
       <c r="A22" s="17"/>
@@ -2418,15 +2428,15 @@
       </c>
       <c r="G22" s="26"/>
       <c r="H22" s="21"/>
-      <c r="I22" s="72"/>
-      <c r="J22" s="69"/>
-      <c r="K22" s="69"/>
-      <c r="L22" s="69"/>
-      <c r="M22" s="69"/>
-      <c r="N22" s="69"/>
-      <c r="O22" s="69"/>
-      <c r="P22" s="69"/>
-      <c r="Q22" s="69"/>
+      <c r="I22" s="32"/>
+      <c r="J22" s="33"/>
+      <c r="K22" s="33"/>
+      <c r="L22" s="33"/>
+      <c r="M22" s="33"/>
+      <c r="N22" s="33"/>
+      <c r="O22" s="33"/>
+      <c r="P22" s="33"/>
+      <c r="Q22" s="33"/>
     </row>
     <row r="23" spans="1:17" ht="16.2" customHeight="1">
       <c r="A23" s="17"/>
@@ -2439,17 +2449,17 @@
       </c>
       <c r="G23" s="26"/>
       <c r="H23" s="21"/>
-      <c r="I23" s="65" t="s">
+      <c r="I23" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="J23" s="74"/>
-      <c r="K23" s="74"/>
-      <c r="L23" s="74"/>
-      <c r="M23" s="74"/>
-      <c r="N23" s="74"/>
-      <c r="O23" s="74"/>
-      <c r="P23" s="74"/>
-      <c r="Q23" s="74"/>
+      <c r="J23" s="35"/>
+      <c r="K23" s="35"/>
+      <c r="L23" s="35"/>
+      <c r="M23" s="35"/>
+      <c r="N23" s="35"/>
+      <c r="O23" s="35"/>
+      <c r="P23" s="35"/>
+      <c r="Q23" s="35"/>
     </row>
     <row r="24" spans="1:17" ht="13.2" customHeight="1">
       <c r="A24" s="17"/>
@@ -2462,15 +2472,15 @@
       </c>
       <c r="G24" s="26"/>
       <c r="H24" s="21"/>
-      <c r="I24" s="65"/>
-      <c r="J24" s="74"/>
-      <c r="K24" s="74"/>
-      <c r="L24" s="74"/>
-      <c r="M24" s="74"/>
-      <c r="N24" s="74"/>
-      <c r="O24" s="74"/>
-      <c r="P24" s="74"/>
-      <c r="Q24" s="74"/>
+      <c r="I24" s="34"/>
+      <c r="J24" s="35"/>
+      <c r="K24" s="35"/>
+      <c r="L24" s="35"/>
+      <c r="M24" s="35"/>
+      <c r="N24" s="35"/>
+      <c r="O24" s="35"/>
+      <c r="P24" s="35"/>
+      <c r="Q24" s="35"/>
     </row>
     <row r="25" spans="1:17" ht="14.4">
       <c r="A25" s="17"/>
@@ -2483,332 +2493,332 @@
       </c>
       <c r="G25" s="26"/>
       <c r="H25" s="21"/>
-      <c r="I25" s="75" t="s">
+      <c r="I25" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="J25" s="76"/>
-      <c r="K25" s="76"/>
-      <c r="L25" s="76"/>
-      <c r="M25" s="76"/>
-      <c r="N25" s="76"/>
-      <c r="O25" s="76"/>
-      <c r="P25" s="76"/>
-      <c r="Q25" s="76"/>
+      <c r="J25" s="37"/>
+      <c r="K25" s="37"/>
+      <c r="L25" s="37"/>
+      <c r="M25" s="37"/>
+      <c r="N25" s="37"/>
+      <c r="O25" s="37"/>
+      <c r="P25" s="37"/>
+      <c r="Q25" s="37"/>
     </row>
     <row r="26" spans="1:17" ht="13.8" customHeight="1">
-      <c r="A26" s="37" t="s">
+      <c r="A26" s="78" t="s">
         <v>18</v>
       </c>
-      <c r="B26" s="38"/>
-      <c r="C26" s="38"/>
-      <c r="D26" s="38"/>
-      <c r="E26" s="38"/>
-      <c r="F26" s="38"/>
-      <c r="G26" s="38"/>
-      <c r="H26" s="39"/>
-      <c r="I26" s="80"/>
-      <c r="J26" s="81"/>
-      <c r="K26" s="81"/>
-      <c r="L26" s="81"/>
-      <c r="M26" s="81"/>
-      <c r="N26" s="81"/>
-      <c r="O26" s="81"/>
-      <c r="P26" s="81"/>
-      <c r="Q26" s="81"/>
+      <c r="B26" s="79"/>
+      <c r="C26" s="79"/>
+      <c r="D26" s="79"/>
+      <c r="E26" s="79"/>
+      <c r="F26" s="79"/>
+      <c r="G26" s="79"/>
+      <c r="H26" s="80"/>
+      <c r="I26" s="45"/>
+      <c r="J26" s="46"/>
+      <c r="K26" s="46"/>
+      <c r="L26" s="46"/>
+      <c r="M26" s="46"/>
+      <c r="N26" s="46"/>
+      <c r="O26" s="46"/>
+      <c r="P26" s="46"/>
+      <c r="Q26" s="46"/>
     </row>
     <row r="27" spans="1:17" ht="27" customHeight="1">
-      <c r="A27" s="40" t="s">
+      <c r="A27" s="81" t="s">
         <v>19</v>
       </c>
-      <c r="B27" s="41"/>
-      <c r="C27" s="42"/>
-      <c r="D27" s="42"/>
-      <c r="E27" s="42"/>
-      <c r="F27" s="42"/>
-      <c r="G27" s="42"/>
-      <c r="H27" s="43"/>
-      <c r="I27" s="80"/>
-      <c r="J27" s="81"/>
-      <c r="K27" s="81"/>
-      <c r="L27" s="81"/>
-      <c r="M27" s="81"/>
-      <c r="N27" s="81"/>
-      <c r="O27" s="81"/>
-      <c r="P27" s="81"/>
-      <c r="Q27" s="81"/>
+      <c r="B27" s="82"/>
+      <c r="C27" s="83"/>
+      <c r="D27" s="83"/>
+      <c r="E27" s="83"/>
+      <c r="F27" s="83"/>
+      <c r="G27" s="83"/>
+      <c r="H27" s="84"/>
+      <c r="I27" s="45"/>
+      <c r="J27" s="46"/>
+      <c r="K27" s="46"/>
+      <c r="L27" s="46"/>
+      <c r="M27" s="46"/>
+      <c r="N27" s="46"/>
+      <c r="O27" s="46"/>
+      <c r="P27" s="46"/>
+      <c r="Q27" s="46"/>
     </row>
     <row r="28" spans="1:17" ht="23.4" customHeight="1">
-      <c r="A28" s="40" t="s">
+      <c r="A28" s="81" t="s">
         <v>20</v>
       </c>
-      <c r="B28" s="41"/>
-      <c r="C28" s="42"/>
-      <c r="D28" s="42"/>
-      <c r="E28" s="42"/>
-      <c r="F28" s="42"/>
-      <c r="G28" s="42"/>
-      <c r="H28" s="43"/>
-      <c r="I28" s="80"/>
-      <c r="J28" s="81"/>
-      <c r="K28" s="81"/>
-      <c r="L28" s="81"/>
-      <c r="M28" s="81"/>
-      <c r="N28" s="81"/>
-      <c r="O28" s="81"/>
-      <c r="P28" s="81"/>
-      <c r="Q28" s="81"/>
+      <c r="B28" s="82"/>
+      <c r="C28" s="83"/>
+      <c r="D28" s="83"/>
+      <c r="E28" s="83"/>
+      <c r="F28" s="83"/>
+      <c r="G28" s="83"/>
+      <c r="H28" s="84"/>
+      <c r="I28" s="45"/>
+      <c r="J28" s="46"/>
+      <c r="K28" s="46"/>
+      <c r="L28" s="46"/>
+      <c r="M28" s="46"/>
+      <c r="N28" s="46"/>
+      <c r="O28" s="46"/>
+      <c r="P28" s="46"/>
+      <c r="Q28" s="46"/>
     </row>
     <row r="29" spans="1:17" ht="28.2" customHeight="1">
-      <c r="A29" s="40" t="s">
+      <c r="A29" s="81" t="s">
         <v>21</v>
       </c>
-      <c r="B29" s="41"/>
-      <c r="C29" s="42"/>
-      <c r="D29" s="42"/>
-      <c r="E29" s="42"/>
-      <c r="F29" s="42"/>
-      <c r="G29" s="42"/>
-      <c r="H29" s="43"/>
-      <c r="I29" s="80"/>
-      <c r="J29" s="81"/>
-      <c r="K29" s="81"/>
-      <c r="L29" s="81"/>
-      <c r="M29" s="81"/>
-      <c r="N29" s="81"/>
-      <c r="O29" s="81"/>
-      <c r="P29" s="81"/>
-      <c r="Q29" s="81"/>
+      <c r="B29" s="82"/>
+      <c r="C29" s="83"/>
+      <c r="D29" s="83"/>
+      <c r="E29" s="83"/>
+      <c r="F29" s="83"/>
+      <c r="G29" s="83"/>
+      <c r="H29" s="84"/>
+      <c r="I29" s="45"/>
+      <c r="J29" s="46"/>
+      <c r="K29" s="46"/>
+      <c r="L29" s="46"/>
+      <c r="M29" s="46"/>
+      <c r="N29" s="46"/>
+      <c r="O29" s="46"/>
+      <c r="P29" s="46"/>
+      <c r="Q29" s="46"/>
     </row>
     <row r="30" spans="1:17" ht="28.8" customHeight="1">
-      <c r="A30" s="40" t="s">
+      <c r="A30" s="81" t="s">
         <v>22</v>
       </c>
-      <c r="B30" s="41"/>
-      <c r="C30" s="42"/>
-      <c r="D30" s="42"/>
-      <c r="E30" s="42"/>
-      <c r="F30" s="42"/>
-      <c r="G30" s="42"/>
-      <c r="H30" s="43"/>
-      <c r="I30" s="80"/>
-      <c r="J30" s="81"/>
-      <c r="K30" s="81"/>
-      <c r="L30" s="81"/>
-      <c r="M30" s="81"/>
-      <c r="N30" s="81"/>
-      <c r="O30" s="81"/>
-      <c r="P30" s="81"/>
-      <c r="Q30" s="81"/>
+      <c r="B30" s="82"/>
+      <c r="C30" s="83"/>
+      <c r="D30" s="83"/>
+      <c r="E30" s="83"/>
+      <c r="F30" s="83"/>
+      <c r="G30" s="83"/>
+      <c r="H30" s="84"/>
+      <c r="I30" s="45"/>
+      <c r="J30" s="46"/>
+      <c r="K30" s="46"/>
+      <c r="L30" s="46"/>
+      <c r="M30" s="46"/>
+      <c r="N30" s="46"/>
+      <c r="O30" s="46"/>
+      <c r="P30" s="46"/>
+      <c r="Q30" s="46"/>
     </row>
     <row r="31" spans="1:17" ht="43.2" customHeight="1">
-      <c r="A31" s="31"/>
-      <c r="B31" s="32"/>
-      <c r="C31" s="32"/>
-      <c r="D31" s="32"/>
-      <c r="E31" s="32"/>
-      <c r="F31" s="32"/>
-      <c r="G31" s="32"/>
-      <c r="H31" s="33"/>
-      <c r="I31" s="80"/>
-      <c r="J31" s="81"/>
-      <c r="K31" s="81"/>
-      <c r="L31" s="81"/>
-      <c r="M31" s="81"/>
-      <c r="N31" s="81"/>
-      <c r="O31" s="81"/>
-      <c r="P31" s="81"/>
-      <c r="Q31" s="81"/>
+      <c r="A31" s="72"/>
+      <c r="B31" s="73"/>
+      <c r="C31" s="73"/>
+      <c r="D31" s="73"/>
+      <c r="E31" s="73"/>
+      <c r="F31" s="73"/>
+      <c r="G31" s="73"/>
+      <c r="H31" s="74"/>
+      <c r="I31" s="45"/>
+      <c r="J31" s="46"/>
+      <c r="K31" s="46"/>
+      <c r="L31" s="46"/>
+      <c r="M31" s="46"/>
+      <c r="N31" s="46"/>
+      <c r="O31" s="46"/>
+      <c r="P31" s="46"/>
+      <c r="Q31" s="46"/>
     </row>
     <row r="32" spans="1:17" ht="14.4">
-      <c r="A32" s="34" t="s">
+      <c r="A32" s="75" t="s">
         <v>23</v>
       </c>
-      <c r="B32" s="35"/>
-      <c r="C32" s="35"/>
-      <c r="D32" s="35"/>
-      <c r="E32" s="35"/>
-      <c r="F32" s="35"/>
-      <c r="G32" s="35"/>
-      <c r="H32" s="36"/>
-      <c r="I32" s="80"/>
-      <c r="J32" s="81"/>
-      <c r="K32" s="81"/>
-      <c r="L32" s="81"/>
-      <c r="M32" s="81"/>
-      <c r="N32" s="81"/>
-      <c r="O32" s="81"/>
-      <c r="P32" s="81"/>
-      <c r="Q32" s="81"/>
+      <c r="B32" s="76"/>
+      <c r="C32" s="76"/>
+      <c r="D32" s="76"/>
+      <c r="E32" s="76"/>
+      <c r="F32" s="76"/>
+      <c r="G32" s="76"/>
+      <c r="H32" s="77"/>
+      <c r="I32" s="45"/>
+      <c r="J32" s="46"/>
+      <c r="K32" s="46"/>
+      <c r="L32" s="46"/>
+      <c r="M32" s="46"/>
+      <c r="N32" s="46"/>
+      <c r="O32" s="46"/>
+      <c r="P32" s="46"/>
+      <c r="Q32" s="46"/>
     </row>
     <row r="33" spans="1:17" s="27" customFormat="1" ht="28.8" customHeight="1">
-      <c r="A33" s="28"/>
-      <c r="B33" s="29"/>
-      <c r="C33" s="30"/>
-      <c r="D33" s="28"/>
-      <c r="E33" s="29"/>
-      <c r="F33" s="29"/>
-      <c r="G33" s="29"/>
-      <c r="H33" s="30"/>
-      <c r="I33" s="80"/>
-      <c r="J33" s="81"/>
-      <c r="K33" s="81"/>
-      <c r="L33" s="81"/>
-      <c r="M33" s="81"/>
-      <c r="N33" s="81"/>
-      <c r="O33" s="81"/>
-      <c r="P33" s="81"/>
-      <c r="Q33" s="81"/>
+      <c r="A33" s="69"/>
+      <c r="B33" s="70"/>
+      <c r="C33" s="71"/>
+      <c r="D33" s="69"/>
+      <c r="E33" s="70"/>
+      <c r="F33" s="70"/>
+      <c r="G33" s="70"/>
+      <c r="H33" s="71"/>
+      <c r="I33" s="45"/>
+      <c r="J33" s="46"/>
+      <c r="K33" s="46"/>
+      <c r="L33" s="46"/>
+      <c r="M33" s="46"/>
+      <c r="N33" s="46"/>
+      <c r="O33" s="46"/>
+      <c r="P33" s="46"/>
+      <c r="Q33" s="46"/>
     </row>
     <row r="34" spans="1:17" ht="17.399999999999999" customHeight="1">
-      <c r="A34" s="82"/>
-      <c r="B34" s="82"/>
-      <c r="C34" s="82"/>
-      <c r="D34" s="82"/>
-      <c r="E34" s="82"/>
-      <c r="F34" s="82"/>
-      <c r="G34" s="82"/>
-      <c r="H34" s="82"/>
-      <c r="I34" s="77" t="s">
+      <c r="A34" s="28"/>
+      <c r="B34" s="28"/>
+      <c r="C34" s="28"/>
+      <c r="D34" s="28"/>
+      <c r="E34" s="28"/>
+      <c r="F34" s="28"/>
+      <c r="G34" s="28"/>
+      <c r="H34" s="28"/>
+      <c r="I34" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="J34" s="68"/>
-      <c r="K34" s="68"/>
-      <c r="L34" s="68"/>
-      <c r="M34" s="68"/>
-      <c r="N34" s="68"/>
-      <c r="O34" s="68"/>
-      <c r="P34" s="68"/>
-      <c r="Q34" s="68"/>
+      <c r="J34" s="39"/>
+      <c r="K34" s="39"/>
+      <c r="L34" s="39"/>
+      <c r="M34" s="39"/>
+      <c r="N34" s="39"/>
+      <c r="O34" s="39"/>
+      <c r="P34" s="39"/>
+      <c r="Q34" s="39"/>
     </row>
     <row r="35" spans="1:17" ht="25.2" customHeight="1">
-      <c r="A35" s="82"/>
-      <c r="B35" s="82"/>
-      <c r="C35" s="82"/>
-      <c r="D35" s="82"/>
-      <c r="E35" s="82"/>
-      <c r="F35" s="82"/>
-      <c r="G35" s="82"/>
-      <c r="H35" s="82"/>
-      <c r="I35" s="73" t="s">
+      <c r="A35" s="28"/>
+      <c r="B35" s="28"/>
+      <c r="C35" s="28"/>
+      <c r="D35" s="28"/>
+      <c r="E35" s="28"/>
+      <c r="F35" s="28"/>
+      <c r="G35" s="28"/>
+      <c r="H35" s="28"/>
+      <c r="I35" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="J35" s="73"/>
-      <c r="K35" s="73"/>
-      <c r="L35" s="73"/>
-      <c r="M35" s="73"/>
-      <c r="N35" s="73"/>
-      <c r="O35" s="73"/>
-      <c r="P35" s="73"/>
-      <c r="Q35" s="73"/>
+      <c r="J35" s="31"/>
+      <c r="K35" s="31"/>
+      <c r="L35" s="31"/>
+      <c r="M35" s="31"/>
+      <c r="N35" s="31"/>
+      <c r="O35" s="31"/>
+      <c r="P35" s="31"/>
+      <c r="Q35" s="31"/>
     </row>
     <row r="36" spans="1:17" ht="13.8" customHeight="1">
-      <c r="A36" s="82"/>
-      <c r="B36" s="82"/>
-      <c r="C36" s="82"/>
-      <c r="D36" s="82"/>
-      <c r="E36" s="82"/>
-      <c r="F36" s="82"/>
-      <c r="G36" s="82"/>
-      <c r="H36" s="82"/>
-      <c r="I36" s="73"/>
-      <c r="J36" s="73"/>
-      <c r="K36" s="73"/>
-      <c r="L36" s="73"/>
-      <c r="M36" s="73"/>
-      <c r="N36" s="73"/>
-      <c r="O36" s="73"/>
-      <c r="P36" s="73"/>
-      <c r="Q36" s="73"/>
+      <c r="A36" s="28"/>
+      <c r="B36" s="28"/>
+      <c r="C36" s="28"/>
+      <c r="D36" s="28"/>
+      <c r="E36" s="28"/>
+      <c r="F36" s="28"/>
+      <c r="G36" s="28"/>
+      <c r="H36" s="28"/>
+      <c r="I36" s="31"/>
+      <c r="J36" s="31"/>
+      <c r="K36" s="31"/>
+      <c r="L36" s="31"/>
+      <c r="M36" s="31"/>
+      <c r="N36" s="31"/>
+      <c r="O36" s="31"/>
+      <c r="P36" s="31"/>
+      <c r="Q36" s="31"/>
     </row>
     <row r="37" spans="1:17" ht="14.4" customHeight="1">
-      <c r="A37" s="82"/>
-      <c r="B37" s="82"/>
-      <c r="C37" s="82"/>
-      <c r="D37" s="82"/>
-      <c r="E37" s="82"/>
-      <c r="F37" s="82"/>
-      <c r="G37" s="82"/>
-      <c r="H37" s="82"/>
-      <c r="I37" s="73" t="s">
+      <c r="A37" s="28"/>
+      <c r="B37" s="28"/>
+      <c r="C37" s="28"/>
+      <c r="D37" s="28"/>
+      <c r="E37" s="28"/>
+      <c r="F37" s="28"/>
+      <c r="G37" s="28"/>
+      <c r="H37" s="28"/>
+      <c r="I37" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="J37" s="73"/>
-      <c r="K37" s="73"/>
-      <c r="L37" s="73"/>
-      <c r="M37" s="73"/>
-      <c r="N37" s="73"/>
-      <c r="O37" s="73"/>
-      <c r="P37" s="73"/>
-      <c r="Q37" s="73"/>
+      <c r="J37" s="31"/>
+      <c r="K37" s="31"/>
+      <c r="L37" s="31"/>
+      <c r="M37" s="31"/>
+      <c r="N37" s="31"/>
+      <c r="O37" s="31"/>
+      <c r="P37" s="31"/>
+      <c r="Q37" s="31"/>
     </row>
     <row r="38" spans="1:17" ht="13.8" customHeight="1">
-      <c r="A38" s="82"/>
-      <c r="B38" s="82"/>
-      <c r="C38" s="82"/>
-      <c r="D38" s="82"/>
-      <c r="E38" s="82"/>
-      <c r="F38" s="82"/>
-      <c r="G38" s="82"/>
-      <c r="H38" s="82"/>
-      <c r="I38" s="73"/>
-      <c r="J38" s="73"/>
-      <c r="K38" s="73"/>
-      <c r="L38" s="73"/>
-      <c r="M38" s="73"/>
-      <c r="N38" s="73"/>
-      <c r="O38" s="73"/>
-      <c r="P38" s="73"/>
-      <c r="Q38" s="73"/>
+      <c r="A38" s="28"/>
+      <c r="B38" s="28"/>
+      <c r="C38" s="28"/>
+      <c r="D38" s="28"/>
+      <c r="E38" s="28"/>
+      <c r="F38" s="28"/>
+      <c r="G38" s="28"/>
+      <c r="H38" s="28"/>
+      <c r="I38" s="31"/>
+      <c r="J38" s="31"/>
+      <c r="K38" s="31"/>
+      <c r="L38" s="31"/>
+      <c r="M38" s="31"/>
+      <c r="N38" s="31"/>
+      <c r="O38" s="31"/>
+      <c r="P38" s="31"/>
+      <c r="Q38" s="31"/>
     </row>
     <row r="39" spans="1:17" ht="13.8" customHeight="1">
-      <c r="A39" s="82"/>
-      <c r="B39" s="82"/>
-      <c r="C39" s="82"/>
-      <c r="D39" s="82"/>
-      <c r="E39" s="82"/>
-      <c r="F39" s="82"/>
-      <c r="G39" s="82"/>
-      <c r="H39" s="82"/>
-      <c r="I39" s="73" t="s">
+      <c r="A39" s="28"/>
+      <c r="B39" s="28"/>
+      <c r="C39" s="28"/>
+      <c r="D39" s="28"/>
+      <c r="E39" s="28"/>
+      <c r="F39" s="28"/>
+      <c r="G39" s="28"/>
+      <c r="H39" s="28"/>
+      <c r="I39" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="J39" s="73"/>
-      <c r="K39" s="73"/>
-      <c r="L39" s="73"/>
-      <c r="M39" s="73"/>
-      <c r="N39" s="73"/>
-      <c r="O39" s="73"/>
-      <c r="P39" s="73"/>
-      <c r="Q39" s="73"/>
+      <c r="J39" s="31"/>
+      <c r="K39" s="31"/>
+      <c r="L39" s="31"/>
+      <c r="M39" s="31"/>
+      <c r="N39" s="31"/>
+      <c r="O39" s="31"/>
+      <c r="P39" s="31"/>
+      <c r="Q39" s="31"/>
     </row>
     <row r="40" spans="1:17" ht="13.8" customHeight="1">
-      <c r="A40" s="82"/>
-      <c r="B40" s="82"/>
-      <c r="C40" s="82"/>
-      <c r="D40" s="82"/>
-      <c r="E40" s="82"/>
-      <c r="F40" s="82"/>
-      <c r="G40" s="82"/>
-      <c r="H40" s="82"/>
-      <c r="I40" s="73"/>
-      <c r="J40" s="73"/>
-      <c r="K40" s="73"/>
-      <c r="L40" s="73"/>
-      <c r="M40" s="73"/>
-      <c r="N40" s="73"/>
-      <c r="O40" s="73"/>
-      <c r="P40" s="73"/>
-      <c r="Q40" s="73"/>
+      <c r="A40" s="28"/>
+      <c r="B40" s="28"/>
+      <c r="C40" s="28"/>
+      <c r="D40" s="28"/>
+      <c r="E40" s="28"/>
+      <c r="F40" s="28"/>
+      <c r="G40" s="28"/>
+      <c r="H40" s="28"/>
+      <c r="I40" s="31"/>
+      <c r="J40" s="31"/>
+      <c r="K40" s="31"/>
+      <c r="L40" s="31"/>
+      <c r="M40" s="31"/>
+      <c r="N40" s="31"/>
+      <c r="O40" s="31"/>
+      <c r="P40" s="31"/>
+      <c r="Q40" s="31"/>
     </row>
     <row r="41" spans="1:17" ht="13.8" customHeight="1">
-      <c r="A41" s="82"/>
-      <c r="B41" s="82"/>
-      <c r="C41" s="82"/>
-      <c r="D41" s="82"/>
-      <c r="E41" s="82"/>
-      <c r="F41" s="82"/>
-      <c r="G41" s="82"/>
-      <c r="H41" s="82"/>
+      <c r="A41" s="28"/>
+      <c r="B41" s="28"/>
+      <c r="C41" s="28"/>
+      <c r="D41" s="28"/>
+      <c r="E41" s="28"/>
+      <c r="F41" s="28"/>
+      <c r="G41" s="28"/>
+      <c r="H41" s="28"/>
       <c r="I41" s="11"/>
       <c r="J41" s="19"/>
       <c r="K41" s="19"/>
@@ -2820,44 +2830,44 @@
       <c r="Q41" s="19"/>
     </row>
     <row r="42" spans="1:17" ht="13.8" customHeight="1">
-      <c r="A42" s="82"/>
-      <c r="B42" s="82"/>
-      <c r="C42" s="82"/>
-      <c r="D42" s="82"/>
-      <c r="E42" s="82"/>
-      <c r="F42" s="82"/>
-      <c r="G42" s="82"/>
-      <c r="H42" s="82"/>
-      <c r="I42" s="83" t="s">
+      <c r="A42" s="28"/>
+      <c r="B42" s="28"/>
+      <c r="C42" s="28"/>
+      <c r="D42" s="28"/>
+      <c r="E42" s="28"/>
+      <c r="F42" s="28"/>
+      <c r="G42" s="28"/>
+      <c r="H42" s="28"/>
+      <c r="I42" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="J42" s="84"/>
-      <c r="K42" s="84"/>
-      <c r="L42" s="84"/>
-      <c r="M42" s="84"/>
-      <c r="N42" s="84"/>
-      <c r="O42" s="84"/>
-      <c r="P42" s="84"/>
-      <c r="Q42" s="84"/>
+      <c r="J42" s="30"/>
+      <c r="K42" s="30"/>
+      <c r="L42" s="30"/>
+      <c r="M42" s="30"/>
+      <c r="N42" s="30"/>
+      <c r="O42" s="30"/>
+      <c r="P42" s="30"/>
+      <c r="Q42" s="30"/>
     </row>
     <row r="43" spans="1:17" ht="13.2" customHeight="1">
-      <c r="A43" s="82"/>
-      <c r="B43" s="82"/>
-      <c r="C43" s="82"/>
-      <c r="D43" s="82"/>
-      <c r="E43" s="82"/>
-      <c r="F43" s="82"/>
-      <c r="G43" s="82"/>
-      <c r="H43" s="82"/>
-      <c r="I43" s="83"/>
-      <c r="J43" s="84"/>
-      <c r="K43" s="84"/>
-      <c r="L43" s="84"/>
-      <c r="M43" s="84"/>
-      <c r="N43" s="84"/>
-      <c r="O43" s="84"/>
-      <c r="P43" s="84"/>
-      <c r="Q43" s="84"/>
+      <c r="A43" s="28"/>
+      <c r="B43" s="28"/>
+      <c r="C43" s="28"/>
+      <c r="D43" s="28"/>
+      <c r="E43" s="28"/>
+      <c r="F43" s="28"/>
+      <c r="G43" s="28"/>
+      <c r="H43" s="28"/>
+      <c r="I43" s="29"/>
+      <c r="J43" s="30"/>
+      <c r="K43" s="30"/>
+      <c r="L43" s="30"/>
+      <c r="M43" s="30"/>
+      <c r="N43" s="30"/>
+      <c r="O43" s="30"/>
+      <c r="P43" s="30"/>
+      <c r="Q43" s="30"/>
     </row>
     <row r="44" spans="1:17" ht="13.8" customHeight="1">
       <c r="A44" s="1"/>
@@ -2900,43 +2910,6 @@
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="D34:H43"/>
-    <mergeCell ref="A34:C43"/>
-    <mergeCell ref="I42:Q43"/>
-    <mergeCell ref="I39:Q40"/>
-    <mergeCell ref="I35:Q36"/>
-    <mergeCell ref="I37:Q38"/>
-    <mergeCell ref="I21:Q22"/>
-    <mergeCell ref="I23:Q24"/>
-    <mergeCell ref="I25:Q25"/>
-    <mergeCell ref="I34:Q34"/>
-    <mergeCell ref="I13:Q14"/>
-    <mergeCell ref="I15:Q15"/>
-    <mergeCell ref="I17:Q18"/>
-    <mergeCell ref="I19:Q20"/>
-    <mergeCell ref="I26:Q33"/>
-    <mergeCell ref="I9:Q10"/>
-    <mergeCell ref="I16:Q16"/>
-    <mergeCell ref="I2:Q3"/>
-    <mergeCell ref="I4:Q4"/>
-    <mergeCell ref="I8:Q8"/>
-    <mergeCell ref="I7:Q7"/>
-    <mergeCell ref="I5:Q6"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="G6:H7"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="F5:F7"/>
     <mergeCell ref="A33:C33"/>
     <mergeCell ref="D33:H33"/>
     <mergeCell ref="A31:H31"/>
@@ -2950,6 +2923,43 @@
     <mergeCell ref="C29:H29"/>
     <mergeCell ref="C28:H28"/>
     <mergeCell ref="C27:H27"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="G6:H7"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="F5:F7"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="I9:Q10"/>
+    <mergeCell ref="I16:Q16"/>
+    <mergeCell ref="I2:Q3"/>
+    <mergeCell ref="I4:Q4"/>
+    <mergeCell ref="I8:Q8"/>
+    <mergeCell ref="I7:Q7"/>
+    <mergeCell ref="I5:Q6"/>
+    <mergeCell ref="I21:Q22"/>
+    <mergeCell ref="I23:Q24"/>
+    <mergeCell ref="I25:Q25"/>
+    <mergeCell ref="I34:Q34"/>
+    <mergeCell ref="I13:Q14"/>
+    <mergeCell ref="I15:Q15"/>
+    <mergeCell ref="I17:Q18"/>
+    <mergeCell ref="I19:Q20"/>
+    <mergeCell ref="I26:Q33"/>
+    <mergeCell ref="D34:H43"/>
+    <mergeCell ref="A34:C43"/>
+    <mergeCell ref="I42:Q43"/>
+    <mergeCell ref="I39:Q40"/>
+    <mergeCell ref="I35:Q36"/>
+    <mergeCell ref="I37:Q38"/>
   </mergeCells>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.15748031496062992" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
